--- a/biology/Zoologie/Dysschema/Dysschema.xlsx
+++ b/biology/Zoologie/Dysschema/Dysschema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysschema est un genre de lépidoptères (papillons) américains de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dysschema amphissa (Geyer, 1832)
@@ -520,15 +534,15 @@
 Dysschema bivittata (Walker, 1854)
 Dysschema damon (Druce)
 Dysschema daphne (Druce, 1885)
-Dysschema dissimulata (Walker, [1865])
-Dysschema eurocilia (Cramer, [1777])
+Dysschema dissimulata (Walker, )
+Dysschema eurocilia (Cramer, )
 Dysschema flavimedia (Monte, 1933)
 Dysschema fulgorata (Butler, 1871)
 Dysschema grassator (Hering, 1925)
 Dysschema hypoxantha Hübner, 1818
 Dysschema irene (Druce, 1885)
 Dysschema leonina (Butler, 1872)
-Dysschema leptoptera (Perty, [1833])
+Dysschema leptoptera (Perty, )
 Dysschema modesta (Hering, 1925)
 Dysschema mosera (Druce, 1907)
 Dysschema moseroides (Hering, 1925)
@@ -542,7 +556,7 @@
 Dysschema unxia (Druce, 1910)
 Dysschema rhea (Druce, 1910)
 Dysschema brunnea (Druce, 1911)
-Dysschema picta (Guérin-Méneville, [1844])
+Dysschema picta (Guérin-Méneville, )
 Dysschema neda (Klug, 1836)
 Dysschema humeralis (Walker, 1854)
 Dysschema montezuma (Schaus, 1892)
@@ -582,14 +596,14 @@
 Dysschema imitata (Druce, 1910)
 Dysschema arema (Boisduval, 1870)
 Dysschema howardi (H. Edwards, 1887)
-Dysschema mariamne (Geyer, [1835])
+Dysschema mariamne (Geyer, )
 Dysschema porioni (Gibeaux, 1982)
-Dysschema sacrifica (Hübner, [1831])
+Dysschema sacrifica (Hübner, )
 Dysschema schadei (Schaus, 1927)
 Dysschema hilara (Weymer, 1895)
 Dysschema hilarina (Weymer, 1914)
 Dysschema boisduvalii (van der Hoeven &amp; de Vriese, 1840)
-Dysschema trapeziata (Walker, [1865])
+Dysschema trapeziata (Walker, )
 Dysschema regalis (Jörgensen, 1935)
 Dysschema centenaria (Burmeister, 1878)
 Dysschema principalis (Jörgensen, 1935)
@@ -604,11 +618,11 @@
 Dysschema on (Hering, 1928)
 Dysschema fantasma (Butler, 1873)
 Dysschema subapicalis (Walker, 1854)
-Dysschema marginata (Guérin-Méneville, [1844])
-Dysschema terminata (Guérin-Méneville, [1844])
+Dysschema marginata (Guérin-Méneville, )
+Dysschema terminata (Guérin-Méneville, )
 Dysschema aethiops (Hering, 1928)
 Dysschema heliconissa (Strand, 1921)
-Dysschema rorata (Walker, [1865])
+Dysschema rorata (Walker, )
 </t>
         </is>
       </c>
